--- a/Vistas.xlsx
+++ b/Vistas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan_\Desktop\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E9CE7B-B6D9-4F5E-96D1-1272B9BACDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DC3B62-42D8-413D-BD49-5FE805DFD03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,9 +185,6 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -195,6 +192,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,35 +477,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -516,8 +516,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -528,8 +528,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
@@ -538,8 +538,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
@@ -548,8 +548,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
@@ -558,10 +558,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -572,18 +572,18 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="5" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -594,8 +594,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
@@ -604,8 +604,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
@@ -614,10 +614,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -628,18 +628,18 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -650,8 +650,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
@@ -660,8 +660,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
@@ -670,10 +670,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -684,18 +684,18 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="5" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -706,8 +706,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
@@ -716,8 +716,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
@@ -726,10 +726,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -740,18 +740,18 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="5" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -762,8 +762,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="1" t="s">
         <v>9</v>
       </c>
@@ -772,8 +772,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="1" t="s">
         <v>10</v>
       </c>
@@ -782,10 +782,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -796,18 +796,18 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="5" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -818,8 +818,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
@@ -828,8 +828,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="1" t="s">
         <v>10</v>
       </c>
@@ -839,23 +839,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B21"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
